--- a/NhryService/src/main/webapp/report/template/NewDeliverMilkTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/NewDeliverMilkTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\vbox\nhry-front-pl\NhryService\target\NhryService\report\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\vbox\nhry-front-pl\NhryService\src\main\webapp\report\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -145,11 +145,39 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -160,45 +188,74 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right style="hair">
-        <color auto="1"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -211,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,17 +278,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -539,98 +611,98 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="19.5">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="8"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="8"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="12" t="s">
         <v>10</v>
       </c>
     </row>
